--- a/analysis/parameterTuning.xlsx
+++ b/analysis/parameterTuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E57E4D4-D79C-47B0-8CC5-48ABDAA9EFC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9A969-EF96-4E2E-B3EB-68335830AFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F89D8508-8980-4E94-9A9A-17A2E9BCF11B}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="72">
   <si>
     <t>50ms</t>
   </si>
@@ -109,16 +109,163 @@
   </si>
   <si>
     <t>X=2, m=2.2</t>
+  </si>
+  <si>
+    <t>X=2, m=2.5</t>
+  </si>
+  <si>
+    <t>X=2, m=3</t>
+  </si>
+  <si>
+    <t>X=2, m=8</t>
+  </si>
+  <si>
+    <t>X=2, m=10</t>
+  </si>
+  <si>
+    <t>X=2, m=20</t>
+  </si>
+  <si>
+    <t>X=2, m=50</t>
+  </si>
+  <si>
+    <t>X=2, m=100</t>
+  </si>
+  <si>
+    <t>X=2, m=150</t>
+  </si>
+  <si>
+    <t>X=2, m=200</t>
+  </si>
+  <si>
+    <t>X=2, m=400</t>
+  </si>
+  <si>
+    <t>X=2, m=0.2</t>
+  </si>
+  <si>
+    <t>t=1s</t>
+  </si>
+  <si>
+    <t>X=1, m=2.5</t>
+  </si>
+  <si>
+    <t>X=1, m=2.8</t>
+  </si>
+  <si>
+    <t>X=1, m=3</t>
+  </si>
+  <si>
+    <t>X=1, m=8</t>
+  </si>
+  <si>
+    <t>X=5, m=10</t>
+  </si>
+  <si>
+    <t>X=5, m=20</t>
+  </si>
+  <si>
+    <t>X=5, m=50</t>
+  </si>
+  <si>
+    <t>X=5, m=100</t>
+  </si>
+  <si>
+    <t>X=5, m=150</t>
+  </si>
+  <si>
+    <t>X=0.5, m=0.2</t>
+  </si>
+  <si>
+    <t>X=0.5, m=1.5</t>
+  </si>
+  <si>
+    <t>X=0.5, m=1.8</t>
+  </si>
+  <si>
+    <t>X=0.5, m=2.5</t>
+  </si>
+  <si>
+    <t>X=0.5, m=2.8</t>
+  </si>
+  <si>
+    <t>X=0.5, m=3</t>
+  </si>
+  <si>
+    <t>X=0.5, m=8</t>
+  </si>
+  <si>
+    <t>X=0.5, m=10</t>
+  </si>
+  <si>
+    <t>X=0.5, m=20</t>
+  </si>
+  <si>
+    <t>X=0.5, m=50</t>
+  </si>
+  <si>
+    <t>X=0.5, m=100</t>
+  </si>
+  <si>
+    <t>X=0.5, m=150</t>
+  </si>
+  <si>
+    <t>X=0.5, m=200</t>
+  </si>
+  <si>
+    <t>X=0.5, m=400</t>
+  </si>
+  <si>
+    <t>Non-monitoring di riferimento</t>
+  </si>
+  <si>
+    <t>responseTime</t>
+  </si>
+  <si>
+    <t>waitingTime</t>
+  </si>
+  <si>
+    <t>serviceTime</t>
+  </si>
+  <si>
+    <t>actualCapacity</t>
+  </si>
+  <si>
+    <t>Pool 8000-18000,nDL 16</t>
+  </si>
+  <si>
+    <t>non-monitoring</t>
+  </si>
+  <si>
+    <t>exponential</t>
+  </si>
+  <si>
+    <t>m=1</t>
+  </si>
+  <si>
+    <t>m=2</t>
+  </si>
+  <si>
+    <t>m=0.5</t>
+  </si>
+  <si>
+    <t>m=5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,7 +291,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -167,15 +314,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +353,1271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time for k = 50ms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-535D-40F5-B683-0DB8805EB8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$21:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7.842E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5499999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCCC-40DD-98BC-A7387205BC7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-535D-40F5-B683-0DB8805EB8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$23:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.45327000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.8899999999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25589000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCCC-40DD-98BC-A7387205BC7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-535D-40F5-B683-0DB8805EB8D0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40460000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCCC-40DD-98BC-A7387205BC7F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1862665664"/>
+        <c:axId val="1862683552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1862665664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862683552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1862683552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1862665664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>712695</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>730624</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F048887F-A056-4E38-835B-8EF62D1FCFAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,19 +1917,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BB958-B0F3-41D9-AD59-DF396E806051}">
-  <dimension ref="A1:U58"/>
+  <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="6" max="21" width="8.88671875" style="2"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.5546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5546875" style="2" customWidth="1"/>
+    <col min="18" max="21" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -993,7 +2433,9 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1023,6 +2465,9 @@
         <v>0.11600000000000001</v>
       </c>
       <c r="E23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1039,7 +2484,9 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1069,6 +2516,9 @@
         <v>0.40460000000000002</v>
       </c>
       <c r="E25" s="2"/>
+      <c r="G25" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
@@ -1144,7 +2594,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1157,7 +2607,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>0.46110000000000001</v>
       </c>
@@ -1170,7 +2620,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -1182,8 +2632,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>0.58621999999999996</v>
       </c>
@@ -1195,8 +2651,14 @@
         <v>0.51419999999999999</v>
       </c>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -1210,8 +2672,14 @@
       <c r="E37" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>0.1363</v>
@@ -1223,8 +2691,14 @@
         <v>3.8899999999999997E-2</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -1236,8 +2710,14 @@
         <v>11</v>
       </c>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>0.44884000000000002</v>
       </c>
@@ -1249,8 +2729,14 @@
         <v>0.113567</v>
       </c>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -1262,8 +2748,14 @@
         <v>12</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>0.56559999999999999</v>
       </c>
@@ -1275,8 +2767,14 @@
         <v>0.49</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -1290,8 +2788,14 @@
       <c r="E43" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>0.136489</v>
@@ -1303,8 +2807,14 @@
         <v>3.533E-2</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1316,8 +2826,14 @@
         <v>11</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>0.47460000000000002</v>
       </c>
@@ -1329,8 +2845,14 @@
         <v>0.1</v>
       </c>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -1342,8 +2864,14 @@
         <v>12</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>0.57298000000000004</v>
       </c>
@@ -1355,8 +2883,14 @@
         <v>0.44030000000000002</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>5</v>
@@ -1370,8 +2904,14 @@
       <c r="E49" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>0.13250000000000001</v>
@@ -1383,8 +2923,14 @@
         <v>3.5499999999999997E-2</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -1396,8 +2942,14 @@
         <v>11</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>0.45327000000000001</v>
       </c>
@@ -1410,7 +2962,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +2975,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>0.59699999999999998</v>
       </c>
@@ -1436,7 +2988,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -1453,7 +3005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>9.3799999999999994E-2</v>
       </c>
@@ -1470,7 +3022,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2.0500000000000001E-2</v>
       </c>
@@ -1504,7 +3056,404 @@
         <v>1.3697999999999999</v>
       </c>
     </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>0.26557999999999998</v>
+      </c>
+      <c r="B60">
+        <v>0.66447000000000001</v>
+      </c>
+      <c r="C60">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="D60">
+        <v>9.3850000000000003E-2</v>
+      </c>
+      <c r="E60">
+        <v>1.83E-2</v>
+      </c>
+      <c r="F60">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="G60">
+        <v>0.78910000000000002</v>
+      </c>
+      <c r="H60">
+        <v>0.70879999999999999</v>
+      </c>
+      <c r="I60">
+        <v>0.43498999999999999</v>
+      </c>
+      <c r="J60">
+        <v>0.2671</v>
+      </c>
+      <c r="K60" s="5">
+        <v>0.23991999999999999</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.1023</v>
+      </c>
+      <c r="M60" s="3">
+        <v>5.3988000000000001E-2</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2.7799000000000001E-2</v>
+      </c>
+      <c r="O60" s="3">
+        <v>2.1479999999999999E-2</v>
+      </c>
+      <c r="P60" s="3">
+        <v>1.5894999999999999E-2</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>8.4399999999999996E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F62">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="G62">
+        <v>0.78868000000000005</v>
+      </c>
+      <c r="H62">
+        <v>0.72</v>
+      </c>
+      <c r="I62">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="J62">
+        <v>0.26369999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K63" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K64">
+        <v>1.4553199999999999</v>
+      </c>
+      <c r="L64">
+        <v>0.58947000000000005</v>
+      </c>
+      <c r="M64">
+        <v>0.27925</v>
+      </c>
+      <c r="N64">
+        <v>0.1234</v>
+      </c>
+      <c r="O64">
+        <v>8.8359999999999994E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F66">
+        <v>0.2132</v>
+      </c>
+      <c r="G66">
+        <v>0.19583999999999999</v>
+      </c>
+      <c r="H66">
+        <v>0.17755000000000001</v>
+      </c>
+      <c r="I66">
+        <v>0.11600000000000001</v>
+      </c>
+      <c r="J66">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>3.4270000000000002E-2</v>
+      </c>
+      <c r="B68">
+        <v>7.8499999999999993E-3</v>
+      </c>
+      <c r="C68">
+        <v>0.13486000000000001</v>
+      </c>
+      <c r="D68">
+        <v>9.5269999999999994E-2</v>
+      </c>
+      <c r="E68">
+        <v>7.3779999999999998E-2</v>
+      </c>
+      <c r="F68">
+        <v>5.8860000000000003E-2</v>
+      </c>
+      <c r="G68">
+        <v>5.4820000000000001E-2</v>
+      </c>
+      <c r="H68">
+        <v>5.11E-2</v>
+      </c>
+      <c r="I68">
+        <v>3.5569999999999997E-2</v>
+      </c>
+      <c r="J68">
+        <v>2.3130000000000001E-2</v>
+      </c>
+      <c r="K68" s="5">
+        <v>2.2780000000000002E-2</v>
+      </c>
+      <c r="L68" s="5">
+        <v>1.5259999999999999E-2</v>
+      </c>
+      <c r="M68" s="3">
+        <v>1.1849999999999999E-2</v>
+      </c>
+      <c r="N68" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="O68" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="P68" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>8.4899999999999993E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70">
+        <v>8.3399000000000008E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="C74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75">
+        <v>3.4571000000000001</v>
+      </c>
+      <c r="C75">
+        <v>0.19989999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="C76">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>64</v>
+      </c>
+      <c r="B77">
+        <v>13010</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A3:XFD3 A5:XFD5 A7:XFD7 A9:XFD9 A11:XFD11 A13:XFD13 A15:XFD15 A17:XFD17 A19:XFD19 A21:XFD21 A23:XFD23 A25:XFD25">
     <cfRule type="colorScale" priority="8">
       <colorScale>
@@ -1602,5 +3551,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/analysis/parameterTuning.xlsx
+++ b/analysis/parameterTuning.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Poggiani\Documents\GitHub\PECSNproject\analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clari\Desktop\Git\PECSNproject\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9A969-EF96-4E2E-B3EB-68335830AFC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6E38AC-24AB-49B9-AFBD-E36C2F1215BC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{F89D8508-8980-4E94-9A9A-17A2E9BCF11B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F89D8508-8980-4E94-9A9A-17A2E9BCF11B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -358,7 +358,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -420,7 +420,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -493,7 +493,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -632,7 +632,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -771,7 +771,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -917,7 +917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1862683552"/>
@@ -977,7 +977,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1007,7 +1007,681 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Response time for k = 20ms</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9059832691854144E-2"/>
+          <c:y val="0.2487408827673892"/>
+          <c:w val="0.95433454862708633"/>
+          <c:h val="0.62083162645314316"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>X=0.5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A157-4B44-9D20-0C19E198045E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$9:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8899999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A157-4B44-9D20-0C19E198045E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>X=1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-A157-4B44-9D20-0C19E198045E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44884000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1000000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26768999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.113567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A157-4B44-9D20-0C19E198045E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>X=2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-A157-4B44-9D20-0C19E198045E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$G$22:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>m=0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>m=1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>m=2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>m=5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.56559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88299000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2599999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-A157-4B44-9D20-0C19E198045E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1862665664"/>
+        <c:axId val="1862683552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1862665664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1862683552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1862683552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1862665664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1055,7 +1729,568 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1617,11 +2852,49 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67234</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA3D37A6-F24F-45F6-B24E-C9C25CE7D072}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1915,42 +3188,328 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/themeOverride1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线 Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="游ゴシック"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="等线"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+      <a:font script="Armn" typeface="Arial"/>
+      <a:font script="Bugi" typeface="Leelawadee UI"/>
+      <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+      <a:font script="Java" typeface="Javanese Text"/>
+      <a:font script="Lisu" typeface="Segoe UI"/>
+      <a:font script="Mymr" typeface="Myanmar Text"/>
+      <a:font script="Nkoo" typeface="Ebrima"/>
+      <a:font script="Olck" typeface="Nirmala UI"/>
+      <a:font script="Osma" typeface="Ebrima"/>
+      <a:font script="Phag" typeface="Phagspa"/>
+      <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+      <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+      <a:font script="Syre" typeface="Estrangelo Edessa"/>
+      <a:font script="Sora" typeface="Nirmala UI"/>
+      <a:font script="Tale" typeface="Microsoft Tai Le"/>
+      <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+      <a:font script="Tfng" typeface="Ebrima"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BB958-B0F3-41D9-AD59-DF396E806051}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.77734375" style="2" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="20.5546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="18.5546875" style="2" customWidth="1"/>
-    <col min="18" max="21" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" style="2" customWidth="1"/>
+    <col min="18" max="21" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +3542,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1.21E-2</v>
       </c>
@@ -1998,7 +3557,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -2029,7 +3588,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0.46110000000000001</v>
       </c>
@@ -2044,7 +3603,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2075,7 +3634,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>0.58621999999999996</v>
       </c>
@@ -2090,7 +3649,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +3682,7 @@
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>9.1000000000000004E-3</v>
       </c>
@@ -2138,7 +3697,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -2169,7 +3728,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>0.44884000000000002</v>
       </c>
@@ -2184,7 +3743,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -2215,7 +3774,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>0.56559999999999999</v>
       </c>
@@ -2230,7 +3789,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +3822,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>8.1600000000000006E-3</v>
       </c>
@@ -2278,7 +3837,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -2309,7 +3868,7 @@
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>0.47460000000000002</v>
       </c>
@@ -2324,7 +3883,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -2355,7 +3914,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>0.57298000000000004</v>
       </c>
@@ -2370,7 +3929,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +3962,7 @@
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>7.842E-3</v>
       </c>
@@ -2418,7 +3977,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -2451,7 +4010,7 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>0.45327000000000001</v>
       </c>
@@ -2469,7 +4028,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -2502,7 +4061,7 @@
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>0.59699999999999998</v>
       </c>
@@ -2520,7 +4079,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2537,7 +4096,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>9.3799999999999994E-2</v>
       </c>
@@ -2554,19 +4113,19 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>5</v>
@@ -2581,7 +4140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3">
         <v>0.1394</v>
@@ -2594,7 +4153,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>8</v>
       </c>
@@ -2607,7 +4166,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>0.46110000000000001</v>
       </c>
@@ -2620,7 +4179,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>13</v>
       </c>
@@ -2639,7 +4198,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>0.58621999999999996</v>
       </c>
@@ -2658,7 +4217,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>5</v>
@@ -2679,7 +4238,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3">
         <v>0.1363</v>
@@ -2698,7 +4257,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
@@ -2717,7 +4276,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>0.44884000000000002</v>
       </c>
@@ -2736,7 +4295,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>13</v>
       </c>
@@ -2755,7 +4314,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>0.56559999999999999</v>
       </c>
@@ -2774,7 +4333,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3" t="s">
         <v>5</v>
@@ -2795,7 +4354,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
         <v>0.136489</v>
@@ -2814,7 +4373,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2833,7 +4392,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>0.47460000000000002</v>
       </c>
@@ -2852,7 +4411,7 @@
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>13</v>
       </c>
@@ -2871,7 +4430,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>0.57298000000000004</v>
       </c>
@@ -2890,7 +4449,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3" t="s">
         <v>5</v>
@@ -2911,7 +4470,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
         <v>0.13250000000000001</v>
@@ -2930,7 +4489,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +4508,7 @@
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>0.45327000000000001</v>
       </c>
@@ -2962,7 +4521,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
@@ -2975,7 +4534,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>0.59699999999999998</v>
       </c>
@@ -2988,7 +4547,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>17</v>
       </c>
@@ -3005,7 +4564,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>9.3799999999999994E-2</v>
       </c>
@@ -3022,7 +4581,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>18</v>
       </c>
@@ -3039,7 +4598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.0500000000000001E-2</v>
       </c>
@@ -3056,7 +4615,7 @@
         <v>1.3697999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -3109,7 +4668,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>0.26557999999999998</v>
       </c>
@@ -3162,7 +4721,7 @@
         <v>8.4399999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>36</v>
       </c>
@@ -3182,7 +4741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F62">
         <v>0.89280000000000004</v>
       </c>
@@ -3199,7 +4758,7 @@
         <v>0.26369999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K63" s="3" t="s">
         <v>41</v>
       </c>
@@ -3216,7 +4775,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="K64">
         <v>1.4553199999999999</v>
       </c>
@@ -3233,7 +4792,7 @@
         <v>8.8359999999999994E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F65" s="3" t="s">
         <v>37</v>
       </c>
@@ -3250,7 +4809,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F66">
         <v>0.2132</v>
       </c>
@@ -3267,7 +4826,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>46</v>
       </c>
@@ -3320,7 +4879,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3.4270000000000002E-2</v>
       </c>
@@ -3373,7 +4932,7 @@
         <v>8.4899999999999993E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>60</v>
       </c>
@@ -3381,7 +4940,7 @@
         <v>8.3399000000000008E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -3400,7 +4959,7 @@
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>65</v>
       </c>
@@ -3411,7 +4970,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -3422,7 +4981,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>62</v>
       </c>
@@ -3433,7 +4992,7 @@
         <v>0.19989999999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -3444,7 +5003,7 @@
         <v>5.3E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>64</v>
       </c>
